--- a/KM5c_data/Sicily__Punta_Piccola_section_.xlsx
+++ b/KM5c_data/Sicily__Punta_Piccola_section_.xlsx
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="O2">
-        <v>19.02968948</v>
+        <v>19.22</v>
       </c>
       <c r="P2">
-        <v>6.755310520000002</v>
+        <v>6.568540089925129</v>
       </c>
       <c r="Q2">
-        <v>6.542236290000002</v>
+        <v>6.355465859925129</v>
       </c>
       <c r="R2">
         <v>9.875909090909094</v>
